--- a/biology/Médecine/Neutropénie/Neutropénie.xlsx
+++ b/biology/Médecine/Neutropénie/Neutropénie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neutrop%C3%A9nie</t>
+          <t>Neutropénie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une neutropénie est un trouble hématologique caractérisé par un taux bas de granulocytes (ou polynucléaires) neutrophiles dans le sang.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Neutrop%C3%A9nie</t>
+          <t>Neutropénie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prévalence de la neutropénie (si on fixe le seuil à 1000 éléments/µl sang) est de l'ordre de 1/1000. Elle est sensiblement plus élevée (0,5 %) chez le sujet d'origine africaine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévalence de la neutropénie (si on fixe le seuil à 1000 éléments/µl sang) est de l'ordre de 1/1000. Elle est sensiblement plus élevée (0,5 %) chez le sujet d'origine africaine.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Neutrop%C3%A9nie</t>
+          <t>Neutropénie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Classification selon la gravité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Neutropénie normale (moins de 2 000 neutros/microlitre µl de sang) — risques minimes d'infection
 Neutropénie légère (1 000 à 1 500 neutros/µl sang) — risques légers d'infection
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Neutrop%C3%A9nie</t>
+          <t>Neutropénie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On peut avoir une neutropénie sévère chronique dès la naissance (neutropénie congénitale) ou la développer plus tard dans la vie (neutropénie acquise). 
 Il y a cinq types principaux de neutropénie sévère chronique :
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Neutrop%C3%A9nie</t>
+          <t>Neutropénie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lors d'une prise de sang systématique (Hémogramme)
 Lors d'une infection faisant suspecter une anomalie sous-jacente, amenant à effectuer une prise de sang
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Neutrop%C3%A9nie</t>
+          <t>Neutropénie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,9 +664,11 @@
           <t>Conséquence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une neutropénie importante est un terrain à risque pour des infections. Cette corrélation était connue dès les années 1960[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une neutropénie importante est un terrain à risque pour des infections. Cette corrélation était connue dès les années 1960.
 </t>
         </is>
       </c>
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Neutrop%C3%A9nie</t>
+          <t>Neutropénie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les neutropénies liées à l'action toxique de médicaments ou autres produits. Médicaments d'emploi courant tels les anti-inflammatoires non stéroïdiens, antibiotiques…
 Produits de chimiothérapie : ceux-ci attaquent prioritairement les cellules à division rapide, dont font partie les cellules de moelle osseuse qui produisent les neutrophiles.
